--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Oracle Financial Services Software Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Oracle Financial Services Software Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -1,237 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
-  <si>
-    <t>Yearly Results of Oracle Financial Services Software(in Rs. Cr.)</t>
-  </si>
-  <si>
-    <t>Net Sales/Income from operations</t>
-  </si>
-  <si>
-    <t>Total Income From Operations</t>
-  </si>
-  <si>
-    <t>Employees Cost</t>
-  </si>
-  <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Other Expenses</t>
-  </si>
-  <si>
-    <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>Other Income</t>
-  </si>
-  <si>
-    <t>P/L Before Int., Excpt. Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>P/L Before Exceptional Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>P/L Before Tax</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>P/L After Tax from Ordinary Activities</t>
-  </si>
-  <si>
-    <t>Net Profit/(Loss) For the Period</t>
-  </si>
-  <si>
-    <t>Equity Share Capital</t>
-  </si>
-  <si>
-    <t>Reserves Excluding Revaluation Reserves</t>
-  </si>
-  <si>
-    <t>Equity Dividend Rate (%)</t>
-  </si>
-  <si>
-    <t>Basic EPS</t>
-  </si>
-  <si>
-    <t>Diluted EPS</t>
-  </si>
-  <si>
-    <t>Basic EPS.</t>
-  </si>
-  <si>
-    <t>Diluted EPS.</t>
-  </si>
-  <si>
-    <t>No Of Shares (Crores)</t>
-  </si>
-  <si>
-    <t>Share Holding (%)</t>
-  </si>
-  <si>
-    <t>Mar '05</t>
-  </si>
-  <si>
-    <t>Mar '06</t>
-  </si>
-  <si>
-    <t>Mar '07</t>
-  </si>
-  <si>
-    <t>Mar '08</t>
-  </si>
-  <si>
-    <t>Mar '09</t>
-  </si>
-  <si>
-    <t>Mar '10</t>
-  </si>
-  <si>
-    <t>Mar '11</t>
-  </si>
-  <si>
-    <t>Mar '12</t>
-  </si>
-  <si>
-    <t>Mar '13</t>
-  </si>
-  <si>
-    <t>Mar '14</t>
-  </si>
-  <si>
-    <t>Mar '15</t>
-  </si>
-  <si>
-    <t>Mar '16</t>
-  </si>
-  <si>
-    <t>Mar '17</t>
-  </si>
-  <si>
-    <t>Mar '18</t>
-  </si>
-  <si>
-    <t>Mar '19</t>
-  </si>
-  <si>
-    <t>Mar '20</t>
-  </si>
-  <si>
-    <t>Mar '21</t>
-  </si>
-  <si>
-    <t>Mar '22</t>
-  </si>
-  <si>
-    <t>Mar '23</t>
-  </si>
-  <si>
-    <t>Mar '24</t>
-  </si>
-  <si>
-    <t>902.86</t>
-  </si>
-  <si>
-    <t>1,153.82</t>
-  </si>
-  <si>
-    <t>1,552.34</t>
-  </si>
-  <si>
-    <t>1,792.97</t>
-  </si>
-  <si>
-    <t>2,212.62</t>
-  </si>
-  <si>
-    <t>2,243.47</t>
-  </si>
-  <si>
-    <t>2,360.51</t>
-  </si>
-  <si>
-    <t>2,605.85</t>
-  </si>
-  <si>
-    <t>2,937.70</t>
-  </si>
-  <si>
-    <t>3,159.47</t>
-  </si>
-  <si>
-    <t>3,341.10</t>
-  </si>
-  <si>
-    <t>3,528.43</t>
-  </si>
-  <si>
-    <t>3,736.31</t>
-  </si>
-  <si>
-    <t>3,861.73</t>
-  </si>
-  <si>
-    <t>3,580.90</t>
-  </si>
-  <si>
-    <t>3,525.51</t>
-  </si>
-  <si>
-    <t>3,645.21</t>
-  </si>
-  <si>
-    <t>3,896.13</t>
-  </si>
-  <si>
-    <t>4,255.58</t>
-  </si>
-  <si>
-    <t>4,784.50</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -246,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -562,1568 +420,1702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Yearly Results of Oracle Financial Services Software(in Rs. Cr.)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Net Sales/Income from operations</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Income From Operations</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Employees Cost</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Depreciation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Other Income</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Int., Excpt. Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Interest</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Exceptional Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Tax</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>P/L After Tax from Ordinary Activities</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Net Profit/(Loss) For the Period</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Share Capital</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Reserves Excluding Revaluation Reserves</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Dividend Rate (%)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Basic EPS</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Diluted EPS</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Basic EPS.</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Diluted EPS.</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>No Of Shares (Crores)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Share Holding (%)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mar '05</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>902.86</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>902.86</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1329.28</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>26.59</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>485.09</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>229.33</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>265.4</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>229.33</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>-17.78</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>247.11</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>247.11</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>49.47</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>197.64</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>197.64</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>37.44</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>1087.75</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>100</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>155.62</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>154.94</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>155.62</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>154.94</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>4.26</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>56.95</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar '06</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,153.82</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1153.82</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>518.5599999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>38.78</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>136.46</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>259.59</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>265.4</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>259.59</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>-29.92</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>289.51</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>289.51</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>44.76</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>244.75</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>240.8</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>38.14</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>1324.59</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>100</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>155.62</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>154.94</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>155.62</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>154.94</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>3.99</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>52.26</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar '07</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1,552.34</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3027.61</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>716.3099999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>56.54</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>172.14</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1257.73</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>265.4</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>1439.32</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>-34.83</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>1455.92</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>1480.01</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>26.38</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>1097.76</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>354.67</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>41.64</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>2316.66</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>3836.36</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>155.62</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>154.94</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>155.62</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>154.94</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>1.58</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>18.98</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar '08</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1,792.97</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1792.97</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>870.0700000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>60.31</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>161.19</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>382.89</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>265.4</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>382.89</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>-48.65</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>431.54</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>431.54</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>20.66</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>410.88</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>410.88</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>41.87</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>2770.75</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>3836.36</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>155.62</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>154.94</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>155.62</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>154.94</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>1.63</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>19.42</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mar '09</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2,212.62</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2212.62</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>1058.51</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>42.84</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>134.25</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>610.9</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>265.4</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>610.9</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>-168.28</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>779.1799999999999</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>779.1799999999999</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>36.58</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>742.6</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>695.71</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>41.88</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>3467.53</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>3836.36</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>155.62</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>154.94</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>155.62</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>154.94</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>1.63</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>19.44</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mar '10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2,243.47</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>2243.47</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>1048.56</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>37.41</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>84.8</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>815.64</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>265.4</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>815.64</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>68.27</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>747.37</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>747.37</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>86.52</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>660.85</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>660.85</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>41.93</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>7309.8</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>3836.36</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>155.62</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>154.94</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>155.62</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>154.94</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>1.64</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>19.53</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mar '11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2,360.51</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>2360.51</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1052.13</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>33.65</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>108.47</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>894.09</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>265.4</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>894.09</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>-140.3</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>1034.39</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>1034.39</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>66.41</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>967.98</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>967.98</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>41.95</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>5108.31</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>3836.36</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>115.4</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>115.23</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>115.4</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>115.23</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>1.64</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>19.56</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mar '12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2,605.85</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>2605.85</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>1253.26</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>40.12</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>93.48</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>949.36</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>375.03</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>1324.39</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>-29.18</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>1324.39</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>1565.89</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>476.66</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>1089.23</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>1089.23</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>41.99</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>62049.3</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>3836.36</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>129.78</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>129.65</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>129.78</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>129.65</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>1.65</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>19.64</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mar '13</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2,937.70</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>2937.7</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>1435.71</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>58.61</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>378.94</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>1064.44</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>440.32</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>1504.76</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>-29.18</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>1504.76</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>1504.76</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>475.5</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>1029.26</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>1029.26</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>42.03</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>7250.31</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>3836.36</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>122.52</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>121.96</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>122.52</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>121.96</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>1.66</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>19.73</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3,159.47</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>3159.47</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>1576.23</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>64.34999999999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>409</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>1109.89</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>620.92</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>1730.81</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>-29.18</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>1730.81</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>1730.81</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>582.45</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>1148.36</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>1148.36</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>42.07</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>8412.83</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>3836.36</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>136.56</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>135.98</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>136.56</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>135.98</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>2.11</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>25.07</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3,341.10</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>3341.1</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>1597.37</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>63.44</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>442.56</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>1237.73</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>375.9</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>1613.63</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>-29.18</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>1613.63</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>1613.63</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>555.61</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>1058.02</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>1058.02</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>42.31</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>2948.36</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>13300</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>125.38</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>124.86</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>125.38</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>124.86</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>2.16</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>25.48</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mar '16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3,528.43</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>3528.43</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>1690.86</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>49.77</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>532.5599999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>1255.24</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>212.87</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>1468.11</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>-29.18</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>1468.11</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>1468.11</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>570.35</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>897.76</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>897.76</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>42.43</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>3914.83</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>2000</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>105.08</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>104.52</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>105.08</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>104.52</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>2.18</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>26.91</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mar '17</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3,736.31</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>3736.31</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>1810.86</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>66.8</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>555.98</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>1302.67</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>163.67</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>1466.34</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>-29.18</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>1466.34</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>1682.59</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>394.5</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>1288.09</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>1288.09</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>42.55</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>2633.37</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>3400</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>151.57</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>151.06</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>151.57</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>151.06</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>2.18</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>26.91</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3,861.73</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>3861.73</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>1858.67</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>57.35</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>547.41</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>1398.29</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>88.63</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>1486.91</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-29.18</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>1486.91</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>1486.91</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>480.92</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>1005.99</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>1005.99</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>42.71</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>3764.4</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>2600</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>117.91</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>117.21</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>117.91</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>117.21</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>2.18</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>26.91</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3,580.90</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>3580.9</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>1189.61</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>50.2</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>493.63</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>1847.47</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>138.95</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>1986.42</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>-29.18</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>1986.42</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>1986.42</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>703.95</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>1282.47</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>1282.47</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>42.89</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>3672.7</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>3836.36</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>149.77</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>149.01</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>149.77</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>149.01</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>2.18</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>26.91</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3,525.51</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>3525.51</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>1190.92</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>83.17</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>403.98</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>1847.44</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>169.16</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>2016.6</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>8.02</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>2008.58</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>2008.58</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>425.92</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>1582.66</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>1582.66</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>42.94</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>5292.68</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>3600</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>184.39</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>183.62</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>184.39</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>183.62</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>2.18</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>26.91</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mar '21</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3,645.21</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>3645.21</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>1244.32</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>80.2</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>244.49</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>2076.2</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>116.48</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>2192.68</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>4.8</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>2187.88</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>2187.88</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>548.6</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>1639.29</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>1639.29</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>43.03</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>5451.52</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>4000</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>190.64</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>189.8</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>190.64</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>189.8</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>2.18</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>26.91</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mar '22</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3,896.13</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>3896.13</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>1454.55</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>67.98</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>250.23</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>2123.37</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>256.01</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>2379.38</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>3.23</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>2376.15</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>2376.15</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>564.9400000000001</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>1811.21</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>1811.21</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>43.12</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>5603.21</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>3800</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>210.19</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>209.08</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>210.19</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>209.08</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>2.18</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>26.91</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4,255.58</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>4255.58</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>1771.92</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>58.39</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>331.5</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>2093.77</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>252.64</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>2346.41</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>3.21</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>2343.2</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>2343.2</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>570.6900000000001</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>1772.51</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>1772.51</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>43.2</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>5808.96</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>4500</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>205.25</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>204.37</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>205.25</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="n">
         <v>204.37</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>2.18</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>26.91</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4,784.50</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>4784.5</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>1917.88</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>59.76</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>408.2</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>2398.65</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>239.62</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>2638.27</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>2.11</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>2636.16</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>2636.16</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>608.24</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>2027.92</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>2027.92</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>43.34</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>6008.23</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>4800</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>234.27</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>232.78</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>234.27</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="n">
         <v>232.78</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>2.18</v>
       </c>
-      <c r="X21">
+      <c r="X21" t="n">
         <v>26.91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>